--- a/Downer/6737384+6753893/res_comb.xlsx
+++ b/Downer/6737384+6753893/res_comb.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\William\Desktop\CONQA\_Git\CONQA\Downer\6737384+6753893\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E1AD6B6-406F-404A-B27F-FF315E752452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E53F855A-3F71-4155-9E3E-72BA412753E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6870" yWindow="1635" windowWidth="31530" windowHeight="19335" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
+    <workbookView xWindow="9435" yWindow="1230" windowWidth="28965" windowHeight="19170" xr2:uid="{65367736-637D-4BB6-AE35-BC415DE60E9F}"/>
   </bookViews>
   <sheets>
     <sheet name="res" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$1:$I$206</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">res!$A$2:$C$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="109">
   <si>
     <t>type</t>
   </si>
@@ -110,50 +110,266 @@
     <t>itp</t>
   </si>
   <si>
-    <t>Prepared By: Site Engineer - Moses Kaufanga</t>
-  </si>
-  <si>
-    <t>Reviewed By: Quality Mgr./Eng. - Nas Matar</t>
-  </si>
-  <si>
-    <t>Reviewed By: Project Manager - Dan Trotman</t>
-  </si>
-  <si>
-    <t>Reviewed By: Design Engineer  - Daniel Cvitanich</t>
-  </si>
-  <si>
-    <t>Reviewed By: AT Project Manager - Werner Nel</t>
-  </si>
-  <si>
-    <t>Reviewed By: AT Engineer to Contract - Mike Robertson</t>
-  </si>
-  <si>
     <t>FINAL ITP CLOSE-OUT</t>
   </si>
   <si>
-    <t>Downer Project/Site Engineer:</t>
-  </si>
-  <si>
-    <t>QA Mgr./Engineer:</t>
-  </si>
-  <si>
-    <t>Designers Rep(Assistant):</t>
-  </si>
-  <si>
-    <t>ITP-003-39028 Site installation</t>
-  </si>
-  <si>
-    <t>ITP-003-39028 Site installation RevC</t>
-  </si>
-  <si>
-    <t>Engineering</t>
+    <t>ENGINEERING</t>
+  </si>
+  <si>
+    <t>GOOD RECEIPT ON SITE</t>
+  </si>
+  <si>
+    <t>INSTALLATION OF STUDS</t>
+  </si>
+  <si>
+    <t>ASSEMBLY - LIGHTNING AND CONDUIT BRACKET</t>
+  </si>
+  <si>
+    <t>QUALITY REVIEW</t>
+  </si>
+  <si>
+    <t>Issued for Construction - Name:</t>
+  </si>
+  <si>
+    <t>Approved by [Engineer/Client] - Name:</t>
+  </si>
+  <si>
+    <t>DN1212-ITP-004 Balustrade Installation</t>
+  </si>
+  <si>
+    <t>DN1212-ITP-004 Balustrade Installation RevA</t>
+  </si>
+  <si>
+    <t>holdpoint</t>
+  </si>
+  <si>
+    <t>AUTHORITY HOLDPOINT</t>
+  </si>
+  <si>
+    <t>1 - Inspection and Test Plan Reviewed and Approved by Customer</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Inspection and Test plan shall be submitted to the Engineer for review and approval before fabrication is commenced.</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - IFC DWGs</t>
+  </si>
+  <si>
+    <t>PFS Engineering - PM/PE</t>
+  </si>
+  <si>
+    <t>2 - Inspection upon receipt at site</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - IFC DWG</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Anchors Hole locations should be in complied with IFC Drawing</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - IFC Drawing</t>
+  </si>
+  <si>
+    <t>PFS Engineering - Team Leader</t>
+  </si>
+  <si>
+    <t>4 - Drilling the holes based in concrete</t>
+  </si>
+  <si>
+    <t>5 - Blow out all holes</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Blow out all hole to make sure all holes are free from dust</t>
+  </si>
+  <si>
+    <t>6 - Chemical Anchoring</t>
+  </si>
+  <si>
+    <t>7 - Land Base plates on studs level base plates with Jacking nuts</t>
+  </si>
+  <si>
+    <t>Specification Standard - Project Structure Specification C0702 Rev. 01</t>
+  </si>
+  <si>
+    <t>9 - Installation of Dura wall panels and cam covers</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Carefully position wall panels and cam covers according to the approved drawings.</t>
+  </si>
+  <si>
+    <t>10 - Holing</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - IFC OWGs</t>
+  </si>
+  <si>
+    <t>11 - Dimension check</t>
+  </si>
+  <si>
+    <t>Specification Standard - IFC DWG</t>
+  </si>
+  <si>
+    <t>12 - Visual inspection of Fasteners</t>
+  </si>
+  <si>
+    <t>Specification Standard - IFC Drawing</t>
+  </si>
+  <si>
+    <t>Specification Standard - Standard operation procedure for steel structure bolt tightening SHEQ-01-02-0038</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 100% of fixings securing brackets to be inspected for snug tight condition and marked with coloured paint pen to confirm fixing condtion has been checked and verified.</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The angles to be assembled between bracket with fasteners</t>
+  </si>
+  <si>
+    <t>15 - Snug tightening of fastener to fasten angles to the brackets</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - 100% of fixings securing brackets and angles to be inspected for snug tight condition and marked with coloured paint pen lo confirm fixing condtion has been checked and verified.</t>
+  </si>
+  <si>
+    <t>16 - Final Inspection</t>
+  </si>
+  <si>
+    <t>PFS Engineering - Site project Manager</t>
+  </si>
+  <si>
+    <t>17 - Compile, review and submit documentation</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - PFS Manufactures Data Report</t>
+  </si>
+  <si>
+    <t>14 - Assembly of the angles between brackets</t>
+  </si>
+  <si>
+    <t>Specification Standard - Project Structure Specification C0702 Rev. 01 IFC structure DWG</t>
+  </si>
+  <si>
+    <t>C - S</t>
+  </si>
+  <si>
+    <t>Downer - Downer</t>
+  </si>
+  <si>
+    <t>C - H</t>
+  </si>
+  <si>
+    <t>C - R</t>
+  </si>
+  <si>
+    <t>C - V</t>
+  </si>
+  <si>
+    <t>C - D</t>
+  </si>
+  <si>
+    <t>○ 22 mm Hole Diameter for M20 Studs</t>
+  </si>
+  <si>
+    <t>○ Hole depth &gt;210 mm</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - IFC Drawing Hilti HIT-RE 500 V4 Technical Data sheet</t>
+  </si>
+  <si>
+    <t>Certify Doc / Ref - IFC Drawing Hilti HIT·RE 500 V4 Technical Data sheet</t>
+  </si>
+  <si>
+    <t>○ Wait for epoxy to cure</t>
+  </si>
+  <si>
+    <t>C - V, D</t>
+  </si>
+  <si>
+    <t>○ Standard operation procedure for steel structure bolt tightening SHEQ-01-02-0038</t>
+  </si>
+  <si>
+    <t>○ Bolts to be Installed and snug tightened</t>
+  </si>
+  <si>
+    <t>Specification Standard - Site installation methodology Project Structure Specification C0702 Rev. 01 IFC structure OWG</t>
+  </si>
+  <si>
+    <t>Specification Standard - Project Structure Specification C07 Rev. 01 IFC structure DWG SHEQ-01-02-0040</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Manual holing shall be performed on GRP material</t>
+  </si>
+  <si>
+    <t>Specification Standard - Project Structure Specification C07 Rev. 01 IFC structure DWG</t>
+  </si>
+  <si>
+    <t>C - V/D</t>
+  </si>
+  <si>
+    <t>○ &gt; Confirmation that dimensional inspections have been completed in line with SHEQ-01-02-0035 Product Inspection Procedure</t>
+  </si>
+  <si>
+    <t>○ &gt; Confirmation that required quantity and types of NOE has been completed and any identified defects have been remediated</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Visual and Dimensional inspections completed by PFS Project Manager to confirm manufactured items have been manufactured lo acceptable standard &amp; tolerance and approved to progress to protective coatings</t>
+  </si>
+  <si>
+    <t>C - RA</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - The material receipt at site need to be visually inspected for quantity and make sure no damage occurred during transport</t>
+  </si>
+  <si>
+    <t>3 - Installation of Templates to identify the Hole locations</t>
+  </si>
+  <si>
+    <t>Specification Standard - Site installation methodology Project Structure Specification C0702 Rev. 01 IFC structure DWG</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Studs' Holes location should be in compliance with IFC Drawing</t>
+  </si>
+  <si>
+    <t>Specification Standard - Site installation methodology Project Structure Specification CD702 Rev. 01 IFC structure DWG</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Epoxy Studs using Hilti HIT-RE 500 V4</t>
+  </si>
+  <si>
+    <t>○ Make sure minimum 210 mm the embedment to acheive</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Make sure the base plates are leveled and confirm their elevation</t>
+  </si>
+  <si>
+    <t>8 - Final alignment - Bolt wide flange beams to base plate</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Verify that the structural component are aligned based on IFC Drawing</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Compliance vvith IFC DWGs</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - All fasteners {bolts, nuts, washers) are to be in compliance with the Project requirement (Grade, Size and Length)</t>
+  </si>
+  <si>
+    <t>13 - Snug tightening of fastener to fasten the brackets to the GRP material</t>
+  </si>
+  <si>
+    <t>Specification Standard - Standard operation procedure for steel structure boll tightening SHEQ-01-02-0038</t>
+  </si>
+  <si>
+    <t>Specification Standard - IFC Drawings, AS/NZS 1554.1:2014 Category SP</t>
+  </si>
+  <si>
+    <t>Acceptance Criteria - Documentation and reports to support installation of steel structure items compiled into PFS Manufactures Data Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -288,8 +504,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="40">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,6 +730,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,7 +906,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="16" fillId="34" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -687,6 +921,14 @@
     <xf numFmtId="0" fontId="16" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="39" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1062,16 +1304,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}">
-  <dimension ref="A1:I206"/>
+  <dimension ref="A1:I133"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="255.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="238.140625" customWidth="1"/>
     <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
@@ -1114,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>23</v>
@@ -1124,7 +1366,7 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="I2" s="1"/>
     </row>
@@ -1133,741 +1375,1051 @@
         <v>10</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="6"/>
+      <c r="B5" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="6"/>
+      <c r="B6" s="6" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="6" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="6"/>
+      <c r="B8" s="6" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="6"/>
+      <c r="B9" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="6"/>
+      <c r="B10" s="6" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
+      <c r="A11" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="6"/>
+      <c r="A12" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="6"/>
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="6"/>
+      <c r="A14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="6"/>
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="6"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="6"/>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="6"/>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="6"/>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="6"/>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6"/>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="6"/>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="6"/>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="6"/>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="6"/>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" s="6"/>
-    </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B27" s="6"/>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" s="6"/>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="6"/>
-    </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B30" s="6"/>
-    </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B31" s="6"/>
-    </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B32" s="6"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B33" s="6"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B34" s="6"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="6"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B36" s="6"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B37" s="6"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B38" s="6"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B39" s="6"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B40" s="6"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B41" s="6"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B42" s="6"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B43" s="6"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B44" s="6"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B45" s="6"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B46" s="6"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B47" s="6"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B48" s="6"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B49" s="6"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B50" s="6"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B51" s="6"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B52" s="6"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B53" s="6"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B54" s="6"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B55" s="6"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B56" s="6"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B57" s="6"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B58" s="6"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B59" s="6"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B60" s="6"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B61" s="6"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B62" s="6"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B63" s="6"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B64" s="6"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B65" s="6"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B66" s="6"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B67" s="6"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B68" s="6"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B69" s="6"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B70" s="6"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B71" s="6"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B72" s="6"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B73" s="6"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B74" s="6"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B75" s="6"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B76" s="6"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B77" s="6"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B78" s="6"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B79" s="6"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B80" s="6"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B81" s="6"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B82" s="6"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B83" s="6"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B84" s="6"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B85" s="6"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B86" s="6"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B87" s="6"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B88" s="6"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B89" s="6"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B90" s="6"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B91" s="6"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B92" s="6"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B93" s="6"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B94" s="6"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B95" s="6"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B96" s="6"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="6"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="6"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="6"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="6"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="6"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="6"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="6"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="6"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="6"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="6"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="6"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B108" s="6"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B109" s="6"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B110" s="6"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B111" s="6"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B112" s="6"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B113" s="6"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B114" s="6"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B115" s="6"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B116" s="6"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B117" s="6"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B118" s="6"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B119" s="6"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B120" s="6"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B121" s="6"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B122" s="6"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B123" s="6"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B124" s="6"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B125" s="6"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B126" s="6"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B127" s="6"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B128" s="6"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B129" s="6"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B130" s="6"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B131" s="6"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B132" s="6"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B133" s="6"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B134" s="6"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B135" s="6"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B136" s="6"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B137" s="6"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B138" s="6"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B139" s="6"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B140" s="6"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B141" s="6"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B142" s="6"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B143" s="6"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B144" s="6"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B145" s="6"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B146" s="6"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B147" s="6"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B148" s="6"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B149" s="6"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B150" s="6"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B151" s="6"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B152" s="6"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B153" s="6"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B154" s="6"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B155" s="6"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B156" s="6"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B157" s="6"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B158" s="6"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B159" s="6"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B160" s="6"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B161" s="6"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B162" s="6"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B163" s="6"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B164" s="6"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B165" s="6"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B166" s="6"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B167" s="6"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B168" s="6"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B169" s="6"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B170" s="6"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B171" s="6"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B172" s="6"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B173" s="6"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B174" s="6"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B175" s="6"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B176" s="6"/>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B177" s="6"/>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B178" s="6"/>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B179" s="6"/>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B180" s="6"/>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B181" s="6"/>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B182" s="6"/>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B183" s="6"/>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B184" s="6"/>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B185" s="6"/>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B186" s="6"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>12</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>12</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>12</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>12</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>12</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>12</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>12</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>12</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>12</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>12</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>12</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B80" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>12</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>12</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>12</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>12</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>12</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>12</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>12</v>
+      </c>
+      <c r="B99" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>12</v>
+      </c>
+      <c r="B100" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>12</v>
+      </c>
+      <c r="B103" s="6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>12</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>12</v>
+      </c>
+      <c r="B105" s="6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>12</v>
+      </c>
+      <c r="B106" s="6" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>12</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>12</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>12</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>12</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>12</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>12</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>12</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>12</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>12</v>
+      </c>
+      <c r="B119" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>12</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>12</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>12</v>
+      </c>
+      <c r="B122" s="6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>12</v>
+      </c>
+      <c r="B123" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" s="7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B188" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B189" s="9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B190" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B191" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B193" s="9" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B194" s="9" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="9" t="s">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B195" s="9" t="s">
+      <c r="B128" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B196" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="5" t="s">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B197" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="8" t="s">
+      <c r="B129" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B198" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="s">
+      <c r="B130" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B200" s="8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="s">
+      <c r="B131" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B201" s="8" t="s">
+      <c r="B132" s="8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B202" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B203" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B204" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B205" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="5" t="s">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B206" s="5" t="s">
+      <c r="B133" s="5" t="s">
         <v>22</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I206" xr:uid="{63D45572-CFED-4CA4-A1B6-303542CA6BBC}"/>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
